--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/10_Artvin_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/10_Artvin_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{867589C1-F0D7-4CF6-822F-AABAAC7504C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1E078F6-29B1-40E0-99D6-0C94212CFF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{6E715FE2-2820-4776-ACCD-A350A88592A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{C1F65F18-C019-4E37-AFBA-38C224D9D3DB}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -937,15 +937,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E5E28DC4-DF08-4824-BCC0-5A4C83A013D1}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{08396B08-372B-4442-AB27-B80B3E4CD6C5}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{5CDC38A2-8C67-41F2-A437-A831280E7CA3}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{1B2C1689-0146-44CB-A071-BC05EDD76FED}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{EC37A7BD-D5F0-46B8-BF1F-C59661C8A836}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{9EE29BBB-C0C9-4F75-8E0A-C82680F90C0C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A5C18A54-94DC-4869-880B-92DBE253D2BB}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{2ADF5B8A-11CB-4B8D-9396-60FFA7281ABD}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{2F91C557-BABE-4AEB-A65F-834CDB5DFC76}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{77EC06CC-B683-4A38-9ECA-3DBE5063D8B9}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8EF5ED4A-F4A8-439E-8826-FAE719631DBE}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{92AB39D4-94CB-4239-98F5-82B035D38741}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{356D3E1C-2EC0-4FDA-A6F1-1D688A9FACF3}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{56536AFA-DA2A-4B52-9754-5276686FCB46}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{3896C54A-7526-4C05-81AE-6E5D1C3E240A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{EBA4B269-8E40-4FD4-AAB9-4E327A2260CE}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{E58DC4FA-1629-4AB0-AAB6-2F02603C63A4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{44A41E9D-9F79-4D7A-B3E3-C78FACD33049}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35731DA7-E770-4F5F-B248-DBBBAB586B96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECFA0B5-8766-4A75-8456-EFE3899DF4EC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2596,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB9911A-481B-4A30-B23C-99EDF9661151}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40532811-1CA6-4AAD-A7AE-D77596AB4CE1}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3882,7 +3882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64B2CAC-E2E1-446B-91A1-B915E9EB1315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B8762B-D769-46C7-997D-0F9E171590FD}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5166,7 +5166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C91E90-154F-45C2-96B0-A3F575BF946F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E41ED1B-8E80-4B60-A9D7-C7AB4EDFBFCE}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6448,7 +6448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B8C4E-35FA-42C1-B4FB-FA1F79AF645B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEDDDEE-FE9F-4426-A955-25B27DBA6F55}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F556C54-C1FD-45F6-BDAD-F13456B9E17B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FBC9B2-976B-4431-A3EB-1C65FE650B3F}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9011,7 +9011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCE69DA-A3B8-4CCE-9775-38D6E334F53F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D70FE3B-631C-491D-A955-91AD4420E12C}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10295,7 +10295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D59A0EC-D898-4385-B00C-2B99E25D48EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E75A19E-373D-4654-BA09-75B2EC3BA1FB}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11579,7 +11579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530B5D02-A9B3-4D99-96EB-B798B010C96B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010AE36D-12C0-46DF-97B9-0572B84D351E}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12867,7 +12867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01441061-1DF3-4A5D-A9CF-7E99953EED38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D02B79D-A426-4D23-B78E-8C918EB24270}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14151,7 +14151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA56B03-7816-4CEA-AEEA-CC618AD46CF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCAC696-0DFF-40A1-A3B4-8A3D9A1ACD9F}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15441,7 +15441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECE6318-D1C0-4755-A647-D2F17E92ED7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6AB3ED-B606-4BF3-8053-AFC0DF783FD5}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
